--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_11_8.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_11_8.xlsx
@@ -478,373 +478,373 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_1</t>
+          <t>model_11_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.07662525566602119</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7761224139243863</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6299821416478151</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.552709584225255</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F2" t="n">
-        <v>1.191506743431091</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G2" t="n">
-        <v>3.073183059692383</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05936010926961899</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I2" t="n">
-        <v>1.654915571212769</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_0</t>
+          <t>model_11_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.07047120496088244</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6682833334360549</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5417040486697933</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.466273727047062</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F3" t="n">
-        <v>1.184696197509766</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G3" t="n">
-        <v>2.886591672897339</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07352212071418762</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I3" t="n">
-        <v>1.562789916992188</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_2</t>
+          <t>model_11_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0253462803933473</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6527519882005111</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5765623270325757</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4504559191425521</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F4" t="n">
-        <v>1.134756207466125</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G4" t="n">
-        <v>2.859718084335327</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06792998313903809</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I4" t="n">
-        <v>1.545931100845337</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_3</t>
+          <t>model_11_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08357610893938505</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4582407957129881</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6418278028034907</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2786540748291502</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F5" t="n">
-        <v>1.014211297035217</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G5" t="n">
-        <v>2.523159980773926</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05745977163314819</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I5" t="n">
-        <v>1.362820625305176</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_6</t>
+          <t>model_11_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1027294074980887</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9524292490826074</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5893340954360098</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.707110171930232</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9930140376091003</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G6" t="n">
-        <v>3.37824273109436</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06588107347488403</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I6" t="n">
-        <v>1.81947934627533</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_4</t>
+          <t>model_11_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1553350709274891</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2030154680623582</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6418663279405892</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.05938542465216323</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9347952008247375</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G7" t="n">
-        <v>2.081549644470215</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05745358765125275</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I7" t="n">
-        <v>1.129118800163269</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_7</t>
+          <t>model_11_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1612391435517353</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.7592450692124022</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5294742699416859</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.545316066678849</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9282611012458801</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G8" t="n">
-        <v>3.043980598449707</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07548408210277557</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I8" t="n">
-        <v>1.647035241127014</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_5</t>
+          <t>model_11_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2074732828079541</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.06713814690754316</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6067068683520239</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05498043576239753</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8770936131477356</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G9" t="n">
-        <v>1.846444249153137</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06309404969215393</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I9" t="n">
-        <v>1.007224678993225</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_8</t>
+          <t>model_11_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2378371460484567</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5622179899775315</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4641248300794356</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3806129341051958</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8434896469116211</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G10" t="n">
-        <v>2.70306921005249</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0859677642583847</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I10" t="n">
-        <v>1.471490740776062</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_9</t>
+          <t>model_11_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2806435120139098</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4474393887259132</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3910284387082207</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2872456462517685</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7961155772209167</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G11" t="n">
-        <v>2.504470586776733</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09769425541162491</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I11" t="n">
-        <v>1.371977686882019</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_10</t>
+          <t>model_11_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3034379681534451</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4022760503089202</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3596920150394236</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2505507921856691</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7708889245986938</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G12" t="n">
-        <v>2.426325559616089</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1027213931083679</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I12" t="n">
-        <v>1.33286726474762</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_11</t>
+          <t>model_11_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.310149242384544</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.41999699411272</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1485340194144219</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2807346704620279</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7634615302085876</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G13" t="n">
-        <v>2.456987619400024</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1365964114665985</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I13" t="n">
-        <v>1.36503803730011</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="14">
@@ -854,369 +854,369 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3255295152017904</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4033760250659977</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08330596923728029</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2710719986817043</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F14" t="n">
-        <v>0.746440052986145</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G14" t="n">
-        <v>2.428228616714478</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1470606327056885</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I14" t="n">
-        <v>1.354739308357239</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_13</t>
+          <t>model_11_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3590661166102441</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3683703530995626</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01845784497000225</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.245472425271233</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7093249559402466</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G15" t="n">
-        <v>2.367659330368042</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1574638783931732</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I15" t="n">
-        <v>1.327454686164856</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_14</t>
+          <t>model_11_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3736303162446497</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3534212258546416</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.007176439782689004</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2346513589377337</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6932066679000854</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G16" t="n">
-        <v>2.341793060302734</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1615762710571289</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I16" t="n">
-        <v>1.315921187400818</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_15</t>
+          <t>model_11_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3796983845784884</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3616543801409191</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1206256948482822</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2496547290543198</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F17" t="n">
-        <v>0.686491072177887</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G17" t="n">
-        <v>2.356038808822632</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1797763705253601</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I17" t="n">
-        <v>1.331912279129028</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_16</t>
+          <t>model_11_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.381961842169811</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.378925729933197</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3226203619363406</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2787118265391202</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6839861273765564</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G18" t="n">
-        <v>2.38592267036438</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2121813595294952</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I18" t="n">
-        <v>1.362882018089294</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_17</t>
+          <t>model_11_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4130188971500195</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3321987009633391</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3700922789888457</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2421119323945742</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6496151089668274</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G19" t="n">
-        <v>2.30507230758667</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2197970449924469</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I19" t="n">
-        <v>1.323873043060303</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_18</t>
+          <t>model_11_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4183267325540078</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3324725743959376</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.5190397117718513</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.252797712815221</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6437409520149231</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G20" t="n">
-        <v>2.305546283721924</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2436919212341309</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I20" t="n">
-        <v>1.335262179374695</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_19</t>
+          <t>model_11_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4193612293996539</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3431675634106228</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.7211291202942509</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2763055832394516</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6425959467887878</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G21" t="n">
-        <v>2.324051380157471</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2761121094226837</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I21" t="n">
-        <v>1.360317349433899</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_20</t>
+          <t>model_11_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4222495403232255</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3524209558475833</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.9363665169607083</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.2995023099653316</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F22" t="n">
-        <v>0.639399528503418</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G22" t="n">
-        <v>2.340062379837036</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3106415867805481</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I22" t="n">
-        <v>1.385041117668152</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_23</t>
+          <t>model_11_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4239794795445671</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.385457978794316</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.564784150214879</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.3724779115463275</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6374849677085876</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G23" t="n">
-        <v>2.397225618362427</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4114554524421692</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I23" t="n">
-        <v>1.462820172309875</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_21</t>
+          <t>model_11_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4271491965414892</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.3507279598368642</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.085494364298939</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.3086937256003981</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6339770555496216</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G24" t="n">
-        <v>2.337132930755615</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3345654010772705</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I24" t="n">
-        <v>1.394837379455566</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_11_8_22</t>
+          <t>model_11_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4276676712042589</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3612680460449615</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.304155306000802</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.3332352847588984</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6334032416343689</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G25" t="n">
-        <v>2.355370283126831</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3696441054344177</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I25" t="n">
-        <v>1.420994639396667</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
     <row r="26">
@@ -1226,28 +1226,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4364325612009781</v>
+        <v>0.3494677884409869</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3616432177785456</v>
+        <v>0.2167805207458163</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.625336611077343</v>
+        <v>0.221043372018899</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3562293220766282</v>
+        <v>0.2227633730967914</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6237030625343323</v>
+        <v>0.7199474573135376</v>
       </c>
       <c r="G26" t="n">
-        <v>2.356019258499146</v>
+        <v>0.673530101776123</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4211696088314056</v>
+        <v>0.9806371331214905</v>
       </c>
       <c r="I26" t="n">
-        <v>1.445502042770386</v>
+        <v>0.8180509805679321</v>
       </c>
     </row>
   </sheetData>
